--- a/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
+++ b/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005679</t>
+          <t>007490</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通资管鑫盛6个月定期开放混合</t>
+          <t>南方信息创新混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.15</t>
+          <t>62.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1295</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009986</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘创新领航混合A</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>81.97</t>
+          <t>21.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009987</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>天弘创新领航混合C</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>81.97</t>
+          <t>23.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4403</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501032</t>
+          <t>001210</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通福盛多策略混合（LOF）</t>
+          <t>天弘互联网灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.07</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61.31</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7876</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005844</t>
+          <t>009986</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方人工智能主题混合</t>
+          <t>天弘创新领航混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.01</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7722</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>009062</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>财通智慧成长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7389</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>008983</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>财通科技创新混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>财通内需增长12个月定期开放混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>80.22</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>61.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5766</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>007491</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>南方信息创新混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>62.18</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4139</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006502</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票A</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95.10</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>62.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4093</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006503</t>
+          <t>006502</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票C</t>
+          <t>财通集成电路产业股票A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>95.10</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>7.59</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>501046</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>001275</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>天弘互联网灵活配置混合</t>
+          <t>中邮创新优势灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001275</t>
+          <t>009063</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中邮创新优势灵活配置混合</t>
+          <t>财通智慧成长混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005313</t>
+          <t>009987</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强A</t>
+          <t>天弘创新领航混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005314</t>
+          <t>006503</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>万家中证1000指数增强C</t>
+          <t>财通集成电路产业股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001734</t>
+          <t>501032</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发百发大数据策略成长灵活配置混合A</t>
+          <t>财通福盛多策略混合（LOF）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001735</t>
+          <t>008984</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发百发大数据策略成长灵活配置混合E</t>
+          <t>财通科技创新混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002210</t>
+          <t>001734</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票A</t>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003646</t>
+          <t>001735</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>创金合信中证1000指数增强A</t>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003647</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>创金合信中证1000指数增强C</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>003865</t>
+          <t>005844</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票C</t>
+          <t>东方人工智能主题混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>501046</t>
+          <t>005314</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
+          <t>万家中证1000指数增强C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>501085</t>
+          <t>005679</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+          <t>财通资管鑫盛6个月定期开放混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>83.45</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008983</t>
+          <t>003646</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>财通科技创新混合A</t>
+          <t>创金合信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008984</t>
+          <t>005313</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>财通科技创新混合C</t>
+          <t>万家中证1000指数增强A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009062</t>
+          <t>003647</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>财通智慧成长混合A</t>
+          <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>88.67</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1</v>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1304,26 +1604,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009063</t>
+          <t>003865</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>财通智慧成长混合C</t>
+          <t>创金合信量化多因子股票C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>88.67</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1358,15 +1668,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>007490</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>南方信息创新混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006165</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强A</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6518</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006166</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强C</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0920</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009970</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通内需增长12个月定期开放混合</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>62.23</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0914</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006502</t>
+          <t>501085</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票A</t>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.19</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5974</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006503</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票C</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.19</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>501046</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
+          <t>财通内需增长12个月定期开放混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4368</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501085</t>
+          <t>001227</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+          <t>中邮信息产业灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001227</t>
+          <t>007491</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中邮信息产业灵活配置混合</t>
+          <t>南方信息创新混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.83</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3748</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007490</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方信息创新混合A</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007491</t>
+          <t>006502</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方信息创新混合C</t>
+          <t>财通集成电路产业股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.43</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001275</t>
+          <t>501046</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中邮创新优势灵活配置混合</t>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>84.51</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>001275</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>中邮创新优势灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>95.27</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.47</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>006503</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>财通集成电路产业股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>79.67</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1798,25 +2268,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>006165</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>建信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>006166</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>建信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
+++ b/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2341,4 +2342,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9303</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8664</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6788</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5815</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4970</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3249</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2068</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1427</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
+++ b/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3272,4 +3273,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2547</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2741</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8272</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4868</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3265</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
+++ b/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3785,4 +3786,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
+++ b/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3794,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3805,17 +3806,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3825,14 +3846,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.1</v>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3841,14 +3884,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.24</v>
+          <t>501082</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3857,14 +3922,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.16</v>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3353</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3873,13 +3960,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002424</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>30</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>13.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
+++ b/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4459,7 +4460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4470,17 +4471,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4490,14 +4511,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.67</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4506,14 +4549,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.1</v>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7746</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4522,14 +4587,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.24</v>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4538,14 +4625,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.16</v>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5771</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -4554,13 +4663,811 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4631</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3301</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2719</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2627</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0711</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001534</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002789</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛同享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>30</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>13.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
+++ b/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5350,7 +5351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5361,17 +5362,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5381,14 +5402,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.57</v>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5397,14 +5440,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.67</v>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5413,14 +5478,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.1</v>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5429,14 +5516,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.24</v>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -5445,14 +5554,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>9.16</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="7">
@@ -5461,13 +5708,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>30</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>13.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
+++ b/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>5.57</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>2.67</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>6.1</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>9.24</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>9.16</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>13.47</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +1070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1735,7 +1960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2399,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2911,7 +3136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3841,7 +4066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4543,7 +4768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
+++ b/数据整理/stocks/A股/创业板/300502-新易盛.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>5.57</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>2.67</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>6.1</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>9.24</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>9.16</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>30</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>13.47</v>
       </c>
     </row>
@@ -616,7 +633,1905 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1295</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4403</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7876</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7722</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7389</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6099</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5766</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4139</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>62.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4093</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001734</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001735</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略成长灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005679</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管鑫盛6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015784</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013466</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015785</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013465</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时智选量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +2739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1070,7 +2985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1960,7 +3875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2624,7 +4539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3136,7 +5051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4066,7 +5981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4766,1200 +6681,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>007490</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方信息创新混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>62.95</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.1295</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001480</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通成长优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.75</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4411</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>720001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通价值动量混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>23.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4403</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001210</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘互联网灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>16.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2452</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501085</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7876</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009986</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7722</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009062</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.7389</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008983</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6099</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009970</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通内需增长12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>14.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>61.31</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5766</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007491</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>南方信息创新混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.11</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4139</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.77</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>62.18</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4093</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006502</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2194</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>501046</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1811</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001275</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中邮创新优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0750</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009063</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0690</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009987</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>天弘创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>81.97</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0594</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006503</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.59</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0486</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008984</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>财通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0380</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001734</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001735</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发百发大数据策略成长灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005844</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>87.01</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0202</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005314</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005679</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>财通资管鑫盛6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>32.15</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003646</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005313</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>003647</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>创金合信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>